--- a/scrapers/scraped-data/DER WIKINGER 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/DER WIKINGER 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
